--- a/excel/sp1-10.xlsx
+++ b/excel/sp1-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D78E0E1-9A87-A94B-9683-7A26CBE25C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C574ACE-6B5D-7E47-954E-663177912A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="800" windowWidth="27900" windowHeight="15380" xr2:uid="{DF1CADEA-E724-5C47-9D4B-12A167EB3D54}"/>
+    <workbookView xWindow="900" yWindow="800" windowWidth="27900" windowHeight="15380" xr2:uid="{DF1CADEA-E724-5C47-9D4B-12A167EB3D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>precision</t>
     <phoneticPr fontId="1"/>
@@ -297,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -338,15 +338,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,15 +665,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B07E6A6-26B9-0149-99BC-85C780155CA8}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E1" sqref="E1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,8 +686,20 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,8 +712,20 @@
       <c r="D2" s="2">
         <v>0.191276403421061</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.12229620925273001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.82647058823526898</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.213064412154817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,8 +738,20 @@
       <c r="D3" s="2">
         <v>0.242260787967046</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.15638808112088701</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.81132445141064202</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.262229680497233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,8 +764,20 @@
       <c r="D4" s="2">
         <v>0.26578272491325899</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.17819829034850501</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.78766349103825595</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.29064259537610898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,8 +790,20 @@
       <c r="D5" s="2">
         <v>0.30173128754922901</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.20069684053852799</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.79798251513112495</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.32072870770094197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -753,8 +816,20 @@
       <c r="D6" s="2">
         <v>0.31754527264264598</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.21599041139351899</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.77439332659250704</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.33777116234633298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,8 +842,20 @@
       <c r="D7" s="2">
         <v>0.29685270033781203</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.207685869209213</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.76934483688324595</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.32707682605472299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -781,8 +868,20 @@
       <c r="D8" s="2">
         <v>0.26109716358576002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.17902892964217501</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.75315315315314002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.28929155653118899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -795,8 +894,20 @@
       <c r="D9" s="2">
         <v>0.23413657964715801</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.15493272706943401</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.81573783359495999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.26040655242094202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -809,8 +920,20 @@
       <c r="D10" s="2">
         <v>0.19097186785734199</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.124415383916813</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.81161137440755804</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.21575652582442201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -823,8 +946,20 @@
       <c r="D11" s="2">
         <v>0.19547610359020301</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.12054902648658</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.81355430600766998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.20998357710771701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -837,8 +972,20 @@
       <c r="D12" s="2">
         <v>0.23546927787684699</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.15543261450453399</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.80742913000975902</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.260682951434137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -851,8 +998,20 @@
       <c r="D13" s="2">
         <v>0.25755591637335701</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.17460933366256201</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.80435489112770797</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.286931571138413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -865,8 +1024,20 @@
       <c r="D14" s="2">
         <v>0.30998883925292697</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.20436712231492901</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.77731262660363498</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.32364351978710199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -879,8 +1050,20 @@
       <c r="D15" s="2">
         <v>0.30957743065045701</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.22304791887835301</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.76219664748560401</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.34510492477593602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -893,8 +1076,20 @@
       <c r="D16" s="2">
         <v>0.30140538294869101</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.20347298203508199</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.77507394460875501</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.32232814287611899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -907,8 +1102,20 @@
       <c r="D17" s="2">
         <v>0.26803828296761301</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.171725182034459</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.79149360358862197</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.282219128551013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -921,8 +1128,20 @@
       <c r="D18" s="2">
         <v>0.24663527264604601</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.161913485157582</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.76979414093426801</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.26755185577259499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -935,8 +1154,20 @@
       <c r="D19" s="2">
         <v>0.17437046718980301</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.12217916571689</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.81064730792495998</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.21235291784895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -949,8 +1180,20 @@
       <c r="D20" s="2">
         <v>0.18395965509718801</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.123049327354259</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.83353584447142004</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.21444201310668301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -963,8 +1206,20 @@
       <c r="D21" s="2">
         <v>0.24237423002948499</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.16527390900649799</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.79960937499998397</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.27392860724469997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -977,8 +1232,20 @@
       <c r="D22" s="2">
         <v>0.25973303667974101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.169333668956092</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.78811715481170197</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.27877101583637998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -991,8 +1258,20 @@
       <c r="D23" s="2">
         <v>0.29045069933161799</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.19745115841151201</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.80692593101551702</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.31726820831074798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1005,8 +1284,20 @@
       <c r="D24" s="2">
         <v>0.30337499411860902</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.21595006934812599</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.78805516892318295</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.339003347542642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1019,8 +1310,20 @@
       <c r="D25" s="2">
         <v>0.29873956860023199</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.21644238380639899</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.76939568538120295</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.33784419860070097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1033,8 +1336,20 @@
       <c r="D26" s="2">
         <v>0.25376377064563199</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.17424649679245899</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.79600523903076603</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.28590750048507002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1047,8 +1362,20 @@
       <c r="D27" s="2">
         <v>0.240689175052998</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.16218702503799601</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.79106515801793198</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.26918481144281597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1061,8 +1388,20 @@
       <c r="D28" s="2">
         <v>0.189405362859488</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.124050523026172</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.83396556755176998</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.215975213458902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1075,8 +1414,20 @@
       <c r="D29" s="2">
         <v>6.5763592495832204E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.7815507535863199E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.80173243503360903</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7.2224389812352893E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1089,8 +1440,20 @@
       <c r="D30" s="2">
         <v>6.5408805024163699E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.6060279870828701E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.82716049382708101</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6.9107787511333493E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1103,8 +1466,20 @@
       <c r="D31" s="2">
         <v>5.13847884096943E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.8358501666993399E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.83777520278089901</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5.4860004546363098E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1117,8 +1492,20 @@
       <c r="D32" s="2">
         <v>6.1427495732693897E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.0060120240480801E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.84967320261428603</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5.8065956965036102E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1131,8 +1518,20 @@
       <c r="D33" s="2">
         <v>7.2883625846599603E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.0439007120097403E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.86169321039389202</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7.7252573824756907E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1145,8 +1544,20 @@
       <c r="D34" s="2">
         <v>8.4966201752701406E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.2077712905173897E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.85236541598687898</v>
+      </c>
+      <c r="H34" s="3">
+        <v>8.0196462137535701E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1158,6 +1569,18 @@
       </c>
       <c r="D35" s="2">
         <v>8.2886514806098793E-2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.1061611374407399E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.87692307692300497</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7.8449837007027595E-2</v>
       </c>
     </row>
   </sheetData>
